--- a/cat-zson/src/main/resources/excel/hd.活动时间表.xlsx
+++ b/cat-zson/src/main/resources/excel/hd.活动时间表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="activity_schedule_time" sheetId="1" r:id="rId1"/>
@@ -396,20 +396,12 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>如果活动是循环活动，开始时间需要填循环时间和循环次数，如7天循环一次的活动，共循环3次，则需要在时间出加_7c_3ct。如果是无限循环的活动，则不需要填循环次数</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -444,13 +436,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>单位:秒
 对应活动进行阶段
 活动开始时间点+开始持续时间=结算时间点</t>
@@ -459,7 +444,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="0"/>
         <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -470,7 +455,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -575,10 +560,105 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -588,27 +668,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -630,13 +696,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -645,16 +704,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -663,82 +728,13 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -761,7 +757,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -770,31 +766,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,191 +952,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1010,6 +997,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1020,6 +1022,50 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1047,75 +1093,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1124,183 +1111,159 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
@@ -1350,6 +1313,7 @@
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1620,10 +1584,10 @@
   <sheetPr/>
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -1636,7 +1600,7 @@
     <col min="10" max="10" width="21.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" ht="16.5" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1652,7 +1616,7 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -1668,219 +1632,219 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="16.5" spans="1:10">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="5" t="s">
+    <row r="3" ht="16.5" spans="1:10">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="6" t="s">
+    <row r="4" ht="16.5" spans="1:10">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" ht="288" customHeight="1" spans="1:10">
-      <c r="A5" s="7" t="s">
+    <row r="5" ht="173" customHeight="1" spans="1:10">
+      <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="13"/>
+      <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="9" t="s">
+    <row r="6" ht="16.5" spans="1:10">
+      <c r="A6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="6">
         <v>150101</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="6">
         <v>1501</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="6">
         <v>-1</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="6">
         <v>0</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="5">
         <v>2592000</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="6">
         <v>0</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="9" t="s">
+    <row r="7" ht="16.5" spans="1:10">
+      <c r="A7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="6">
         <v>150102</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="6">
         <v>1501</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="6">
         <v>1</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="6">
         <v>0</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="5">
         <v>2592000</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="6">
         <v>0</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="9" t="s">
+    <row r="8" ht="16.5" spans="1:10">
+      <c r="A8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="6">
         <v>150103</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="6">
         <v>1501</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="6">
         <v>-1</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="6">
         <v>0</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="5">
         <v>2592000</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="6">
         <v>0</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="6" t="s">
         <v>37</v>
       </c>
     </row>

--- a/cat-zson/src/main/resources/excel/hd.活动时间表.xlsx
+++ b/cat-zson/src/main/resources/excel/hd.活动时间表.xlsx
@@ -436,6 +436,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>单位:秒
 对应活动进行阶段
 活动开始时间点+开始持续时间=结算时间点</t>
@@ -556,9 +562,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -581,6 +587,128 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -589,44 +717,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -635,91 +725,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -746,16 +752,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -772,31 +778,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,151 +958,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,17 +1002,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1028,9 +1043,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1050,37 +1067,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1099,10 +1105,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1111,133 +1117,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1587,13 +1593,14 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
     <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="5" width="9" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
     <col min="6" max="7" width="44.375" customWidth="1"/>
     <col min="8" max="8" width="36.125" customWidth="1"/>
     <col min="9" max="9" width="35.5" customWidth="1"/>
